--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -454,10 +478,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -501,28 +525,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="3">
+      <c r="A13" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="3">
+      <c r="C13" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="F13" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="3">
+      <c r="G13" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -547,28 +571,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="3">
+      <c r="B15" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="C15" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="3">
+      <c r="F15" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="3">
+      <c r="G15" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="3">
+      <c r="I15" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -656,10 +680,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -703,28 +727,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="3">
+      <c r="A20" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="3">
+      <c r="C20" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="G20" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -749,28 +773,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="3">
+      <c r="I22" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -945,10 +969,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -992,28 +1016,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="3">
+      <c r="A30" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="3">
+      <c r="C30" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="3">
+      <c r="F30" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1038,28 +1062,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="3">
+      <c r="C32" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="3">
+      <c r="I32" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1234,10 +1258,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="3" t="s">
+      <c r="J38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1281,28 +1305,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="3">
+      <c r="A40" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="3">
+      <c r="C40" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1327,28 +1351,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="3">
+      <c r="B42" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="3">
+      <c r="D42" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="3">
+      <c r="F42" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="3">
+      <c r="G42" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="3">
+      <c r="I42" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1494,10 +1518,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="3" t="s">
+      <c r="J47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1541,28 +1565,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="3">
+      <c r="A49" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="3">
+      <c r="B49" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="3">
+      <c r="C49" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="3">
+      <c r="F49" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="3">
+      <c r="G49" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="3">
+      <c r="H49" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1587,28 +1611,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="3">
+      <c r="I51" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1754,10 +1778,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="J56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1801,28 +1825,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="3">
+      <c r="A58" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="3">
+      <c r="C58" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1847,28 +1871,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="3">
+      <c r="I60" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1985,10 +2009,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2032,28 +2056,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2078,28 +2102,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2187,10 +2211,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="J71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2234,28 +2258,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="A73" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="3">
+      <c r="C73" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2280,28 +2304,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="3">
+      <c r="I75" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2389,10 +2413,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2436,28 +2460,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2482,28 +2506,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2591,10 +2615,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="3" t="s">
+      <c r="J85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2638,28 +2662,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="A87" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="3">
+      <c r="C87" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2684,28 +2708,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="3">
+      <c r="I89" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2851,10 +2875,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="J94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2898,28 +2922,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="3">
+      <c r="A96" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="3">
+      <c r="C96" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2944,28 +2968,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="3">
+      <c r="B98" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="3">
+      <c r="C98" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="3">
+      <c r="D98" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="3">
+      <c r="F98" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="3">
+      <c r="G98" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="3">
+      <c r="H98" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="3">
+      <c r="I98" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3082,10 +3106,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="J102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3129,28 +3153,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="3">
+      <c r="A104" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="3">
+      <c r="C104" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3175,28 +3199,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="3">
+      <c r="C106" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="3">
+      <c r="D106" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="3">
+      <c r="I106" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3313,10 +3337,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="3" t="s">
+      <c r="J110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3360,28 +3384,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="3">
+      <c r="A112" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="3">
+      <c r="C112" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3406,28 +3430,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="3">
+      <c r="I114" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3544,10 +3568,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="3" t="s">
+      <c r="J118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3591,28 +3615,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="3">
+      <c r="A120" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="3">
+      <c r="C120" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3637,28 +3661,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="3">
+      <c r="C122" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="3">
+      <c r="D122" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="3">
+      <c r="I122" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3746,10 +3770,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="3" t="s">
+      <c r="J125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3793,28 +3817,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="3">
+      <c r="A127" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="3">
+      <c r="C127" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3839,28 +3863,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="3">
+      <c r="I129" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3948,10 +3972,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="3" t="s">
+      <c r="J132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3995,28 +4019,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="3">
+      <c r="A134" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="3">
+      <c r="C134" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="3">
+      <c r="F134" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="3">
+      <c r="G134" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="3">
+      <c r="H134" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4041,28 +4065,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="3">
+      <c r="C136" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="3">
+      <c r="D136" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="3">
+      <c r="I136" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4179,10 +4203,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="3" t="s">
+      <c r="J140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4226,28 +4250,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="A142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="3">
+      <c r="C142" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4272,28 +4296,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="3">
+      <c r="I144" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4381,10 +4405,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="3" t="s">
+      <c r="J147" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4428,28 +4452,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="3">
+      <c r="A149" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="3">
+      <c r="B149" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="3">
+      <c r="C149" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="3">
+      <c r="F149" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="3">
+      <c r="G149" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="3">
+      <c r="H149" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4474,28 +4498,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="3">
+      <c r="C151" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="3">
+      <c r="D151" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="3">
+      <c r="I151" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4612,10 +4636,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="3" t="s">
+      <c r="J155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4659,28 +4683,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="3">
+      <c r="A157" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="3">
+      <c r="C157" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4705,28 +4729,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="3">
+      <c r="C159" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="3">
+      <c r="D159" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="3">
+      <c r="I159" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4814,10 +4838,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="3" t="s">
+      <c r="J162" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4861,28 +4885,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="3">
+      <c r="A164" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="3">
+      <c r="C164" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4907,28 +4931,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="3">
+      <c r="C166" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="3">
+      <c r="D166" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="3">
+      <c r="I166" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5016,10 +5040,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="3" t="s">
+      <c r="J169" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5063,28 +5087,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="3">
+      <c r="A171" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="3">
+      <c r="C171" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5109,28 +5133,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="3">
+      <c r="C173" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="3">
+      <c r="D173" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="3">
+      <c r="I173" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5218,10 +5242,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="3" t="s">
+      <c r="J176" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5265,28 +5289,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="3">
+      <c r="A178" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="3">
+      <c r="C178" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5311,28 +5335,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="3">
+      <c r="C180" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="3">
+      <c r="D180" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="3">
+      <c r="I180" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5420,10 +5444,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="3" t="s">
+      <c r="J183" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5467,28 +5491,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="3">
+      <c r="C185" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5513,28 +5537,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5651,10 +5675,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="3" t="s">
+      <c r="J191" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5698,28 +5722,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="3">
+      <c r="A193" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="3">
+      <c r="C193" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5744,28 +5768,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="3">
+      <c r="C195" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="3">
+      <c r="D195" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="3">
+      <c r="I195" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5853,10 +5877,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="3" t="s">
+      <c r="J198" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5900,28 +5924,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="3">
+      <c r="A200" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="3">
+      <c r="C200" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5946,28 +5970,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="3">
+      <c r="C202" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="3">
+      <c r="D202" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="3">
+      <c r="I202" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6055,10 +6079,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="J205" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6102,28 +6126,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="3">
+      <c r="A207" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="3">
+      <c r="C207" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6148,28 +6172,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="3">
+      <c r="C209" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="3">
+      <c r="D209" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="3">
+      <c r="I209" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6286,10 +6310,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="3" t="s">
+      <c r="J213" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6333,28 +6357,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="3">
+      <c r="A215" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="3">
+      <c r="B215" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="3">
+      <c r="C215" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="3">
+      <c r="E215" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="3">
+      <c r="F215" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="3">
+      <c r="G215" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="3">
+      <c r="H215" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6379,28 +6403,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="3">
+      <c r="B217" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="3">
+      <c r="C217" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="3">
+      <c r="D217" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="3">
+      <c r="E217" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="3">
+      <c r="F217" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="3">
+      <c r="G217" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="3">
+      <c r="H217" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="3">
+      <c r="I217" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6488,10 +6512,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="3" t="s">
+      <c r="J220" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6535,28 +6559,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="3">
+      <c r="A222" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="3">
+      <c r="C222" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6581,28 +6605,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="3">
+      <c r="B224" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="3">
+      <c r="C224" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="3">
+      <c r="D224" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="3">
+      <c r="E224" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="3">
+      <c r="F224" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="3">
+      <c r="G224" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="3">
+      <c r="H224" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="3">
+      <c r="I224" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6690,10 +6714,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="3" t="s">
+      <c r="J227" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6737,28 +6761,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="3">
+      <c r="A229" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="3">
+      <c r="C229" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6783,28 +6807,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="3">
+      <c r="B231" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="3">
+      <c r="C231" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="3">
+      <c r="D231" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="3">
+      <c r="E231" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="3">
+      <c r="F231" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="3">
+      <c r="G231" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="3">
+      <c r="H231" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="3">
+      <c r="I231" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6979,10 +7003,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="3" t="s">
+      <c r="J237" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7026,28 +7050,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="3">
+      <c r="A239" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="3">
+      <c r="B239" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="3">
+      <c r="C239" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="3">
+      <c r="E239" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="3">
+      <c r="F239" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="3">
+      <c r="G239" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="3">
+      <c r="H239" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7072,28 +7096,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="3">
+      <c r="C241" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="3">
+      <c r="D241" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="3">
+      <c r="I241" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7181,10 +7205,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="3" t="s">
+      <c r="J244" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7228,28 +7252,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="3">
+      <c r="A246" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="3">
+      <c r="B246" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="3">
+      <c r="C246" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="3">
+      <c r="E246" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="3">
+      <c r="F246" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="3">
+      <c r="G246" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="3">
+      <c r="H246" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7274,28 +7298,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="3">
+      <c r="B248" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="3">
+      <c r="C248" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="3">
+      <c r="D248" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="3">
+      <c r="E248" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="3">
+      <c r="F248" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="3">
+      <c r="G248" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="3">
+      <c r="H248" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="3">
+      <c r="I248" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7412,10 +7436,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="3" t="s">
+      <c r="J252" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7459,28 +7483,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="3">
+      <c r="A254" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="3">
+      <c r="B254" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="3">
+      <c r="C254" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="3">
+      <c r="E254" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="3">
+      <c r="F254" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="3">
+      <c r="G254" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="3">
+      <c r="H254" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7505,28 +7529,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="3">
+      <c r="B256" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="3">
+      <c r="C256" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="3">
+      <c r="D256" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="3">
+      <c r="E256" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="3">
+      <c r="F256" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="3">
+      <c r="G256" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="3">
+      <c r="H256" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="3">
+      <c r="I256" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7585,10 +7609,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="3" t="s">
+      <c r="J258" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7632,28 +7656,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="3">
+      <c r="A260" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="3">
+      <c r="B260" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="3">
+      <c r="C260" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="3">
+      <c r="E260" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="3">
+      <c r="F260" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="3">
+      <c r="G260" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="3">
+      <c r="H260" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7678,28 +7702,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="3">
+      <c r="B262" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="3">
+      <c r="C262" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="3">
+      <c r="D262" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="3">
+      <c r="E262" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="3">
+      <c r="F262" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="3">
+      <c r="G262" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="3">
+      <c r="H262" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="3">
+      <c r="I262" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7874,10 +7898,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="3" t="s">
+      <c r="J268" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7921,28 +7945,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="3">
+      <c r="A270" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="3">
+      <c r="B270" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="3">
+      <c r="C270" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="3">
+      <c r="E270" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="3">
+      <c r="F270" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="3">
+      <c r="G270" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="3">
+      <c r="H270" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7967,28 +7991,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="3">
+      <c r="C272" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="3">
+      <c r="D272" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="3">
+      <c r="I272" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8105,10 +8129,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="3" t="s">
+      <c r="J276" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
